--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_25.qasm_rb2_archsize5_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_25.qasm_rb2_archsize5_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N721"/>
+  <dimension ref="A1:N722"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.932981014251709</v>
+        <v>0.001158237457275391</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01146125793457031</v>
+        <v>0.0008308887481689453</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01986479759216309</v>
+        <v>0.04529094696044922</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 4), (2, 3), (3, 3), (1, 3), (3, 1), (3, 0), (4, 2), (4, 3), (2, 0), (3, 4), (1, 4), (2, 2), (3, 2), (2, 4), (4, 0), (4, 1), (4, 4), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[0, 4], [2, 3], [3, 3], [1, 3], [3, 1], [3, 0], [4, 2], [4, 3], [2, 0], [3, 4], [1, 4], [2, 2], [3, 2], [2, 4], [4, 0], [4, 1], [4, 4], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>[(0, 4), (2, 3), (3, 3), (3, 4), (2, 4), (0, 0), (4, 2), (4, 3), (4, 0), (1, 4), (4, 4), (4, 1), (3, 2), (3, 0), (2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[0, 4], [2, 3], [3, 3], [3, 4], [2, 4], [0, 0], [4, 2], [4, 3], [4, 0], [1, 4], [4, 4], [4, 1], [3, 2], [3, 0], [2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>[(4, 2), (4, 3), (3, 1), (3, 2), (4, 4), (3, 0), (4, 1), (4, 0), (3, 3), (3, 4), (0, 4), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (2, 4)]</t>
+          <t>[[4, 2], [4, 3], [3, 1], [3, 2], [4, 4], [3, 0], [4, 1], [4, 0], [3, 3], [3, 4], [0, 4], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [2, 4]]</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>[(0, 4), (0, 3), (4, 0), (1, 4), (3, 1), (3, 0), (4, 2), (4, 3), (3, 3), (2, 4), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (1, 3), (3, 4), (4, 4), (3, 2), (4, 1)]</t>
+          <t>[[0, 4], [0, 3], [4, 0], [1, 4], [3, 1], [3, 0], [4, 2], [4, 3], [3, 3], [2, 4], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [1, 3], [3, 4], [4, 4], [3, 2], [4, 1]]</t>
         </is>
       </c>
     </row>
@@ -2594,7 +2594,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>[(0, 4), (2, 3), (1, 2), (1, 3), (2, 4), (3, 4), (4, 3), (4, 2), (3, 0), (3, 1), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (4, 0), (4, 1), (3, 2), (4, 4), (3, 3), (1, 4), (2, 2), (0, 3)]</t>
+          <t>[[0, 4], [2, 3], [1, 2], [1, 3], [2, 4], [3, 4], [4, 3], [4, 2], [3, 0], [3, 1], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [4, 0], [4, 1], [3, 2], [4, 4], [3, 3], [1, 4], [2, 2], [0, 3]]</t>
         </is>
       </c>
     </row>
@@ -3365,7 +3365,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>[(1, 2), (0, 4), (2, 3), (3, 4), (4, 4), (3, 2), (4, 1), (3, 1), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (3, 0), (4, 2), (4, 3), (3, 3), (2, 4), (1, 4), (0, 3), (1, 3), (2, 2), (4, 0)]</t>
+          <t>[[1, 2], [0, 4], [2, 3], [3, 4], [4, 4], [3, 2], [4, 1], [3, 1], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [3, 0], [4, 2], [4, 3], [3, 3], [2, 4], [1, 4], [0, 3], [1, 3], [2, 2], [4, 0]]</t>
         </is>
       </c>
     </row>
@@ -4092,7 +4092,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>[(4, 2), (4, 3), (3, 3), (2, 4), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (1, 3), (3, 4), (4, 4), (3, 2), (4, 1), (3, 1), (1, 4), (0, 3), (0, 4), (3, 0), (4, 0)]</t>
+          <t>[[4, 2], [4, 3], [3, 3], [2, 4], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [1, 3], [3, 4], [4, 4], [3, 2], [4, 1], [3, 1], [1, 4], [0, 3], [0, 4], [3, 0], [4, 0]]</t>
         </is>
       </c>
     </row>
@@ -4699,7 +4699,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>[(1, 4), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (2, 4), (0, 4), (3, 4), (4, 4), (3, 2), (4, 1), (3, 1), (3, 3), (4, 3), (4, 2), (3, 0), (4, 0)]</t>
+          <t>[[1, 4], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [2, 4], [0, 4], [3, 4], [4, 4], [3, 2], [4, 1], [3, 1], [3, 3], [4, 3], [4, 2], [3, 0], [4, 0]]</t>
         </is>
       </c>
     </row>
@@ -5218,7 +5218,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>[(1, 4), (0, 3), (0, 2), (1, 1), (1, 0), (0, 0), (0, 1), (1, 2), (1, 3), (0, 4), (2, 3), (3, 4), (3, 3), (3, 2), (2, 1), (2, 4), (2, 2), (3, 0), (4, 1), (3, 1), (2, 0), (4, 3), (4, 2), (4, 0), (4, 4)]</t>
+          <t>[[1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [2, 3], [3, 4], [3, 3], [3, 2], [2, 1], [2, 4], [2, 2], [3, 0], [4, 1], [3, 1], [2, 0], [4, 3], [4, 2], [4, 0], [4, 4]]</t>
         </is>
       </c>
     </row>
@@ -5782,7 +5782,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>[(1, 1), (0, 2), (0, 1), (1, 2), (0, 0), (1, 3), (1, 0), (3, 0), (2, 3), (3, 3), (3, 4), (4, 3), (4, 2), (4, 1), (4, 0), (4, 4), (2, 4), (3, 2), (2, 1), (0, 4), (2, 0), (1, 4), (0, 3), (2, 2), (3, 1)]</t>
+          <t>[[1, 1], [0, 2], [0, 1], [1, 2], [0, 0], [1, 3], [1, 0], [3, 0], [2, 3], [3, 3], [3, 4], [4, 3], [4, 2], [4, 1], [4, 0], [4, 4], [2, 4], [3, 2], [2, 1], [0, 4], [2, 0], [1, 4], [0, 3], [2, 2], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -6152,110 +6152,120 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B717" t="n">
-        <v>109</v>
+        <v>0.9931405542984826</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B718" t="n">
-        <v>588</v>
+        <v>109</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B719" t="n">
-        <v>10</v>
+        <v>588</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B720" t="n">
-        <v>1.019695997238159</v>
+        <v>10</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B721" t="n">
+        <v>0.1434009075164795</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B721" t="inlineStr">
+      <c r="B722" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C721" t="inlineStr">
+      <c r="C722" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D721" t="inlineStr">
+      <c r="D722" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E721" t="inlineStr">
+      <c r="E722" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F721" t="inlineStr">
+      <c r="F722" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G721" t="inlineStr">
+      <c r="G722" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H721" t="inlineStr">
+      <c r="H722" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I721" t="inlineStr">
+      <c r="I722" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J721" t="inlineStr">
+      <c r="J722" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K721" t="inlineStr">
+      <c r="K722" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L721" t="inlineStr">
+      <c r="L722" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M721" t="inlineStr">
+      <c r="M722" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N721" t="inlineStr">
+      <c r="N722" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_25.qasm_rb2_archsize5_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_25.qasm_rb2_archsize5_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N722"/>
+  <dimension ref="A1:N740"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001158237457275391</v>
+        <v>0.0004789829254150391</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0008308887481689453</v>
+        <v>0.0002350807189941406</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04529094696044922</v>
+        <v>0.05919003486633301</v>
       </c>
     </row>
     <row r="8">
@@ -1937,11 +1937,6 @@
           <t>[16, 15]</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>[22, 7]</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -1984,11 +1979,6 @@
           <t>[22, 9]</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>[16, 13]</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -2003,11 +1993,6 @@
           <t>[24, 7]</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>[16, 14]</t>
-        </is>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -2015,11 +2000,6 @@
           <t>[16, 15]</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>[22, 7]</t>
-        </is>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -2062,11 +2042,6 @@
           <t>[22, 9]</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>[16, 13]</t>
-        </is>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -2081,1701 +2056,1646 @@
           <t>[24, 7]</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>[16, 14]</t>
-        </is>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>[17, 13]</t>
+          <t>[16, 14]</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>[18, 12]</t>
+          <t>[17, 13]</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>[19, 11]</t>
+          <t>[18, 12]</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>[20, 10]</t>
+          <t>[19, 11]</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>[21, 9]</t>
+          <t>[20, 10]</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>[22, 8]</t>
+          <t>[21, 9]</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>[23, 7]</t>
+          <t>[22, 8]</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>[24, 6]</t>
+          <t>[23, 7]</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>[17, 13]</t>
+          <t>[24, 6]</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>[18, 12]</t>
+          <t>[16, 14]</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>[19, 11]</t>
+          <t>[17, 13]</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>[20, 10]</t>
+          <t>[18, 12]</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>[21, 9]</t>
+          <t>[19, 11]</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>[22, 8]</t>
+          <t>[20, 10]</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>[23, 7]</t>
+          <t>[21, 9]</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>[24, 6]</t>
+          <t>[22, 8]</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>[15, 14]</t>
+          <t>[23, 7]</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>[17, 12]</t>
+          <t>[24, 6]</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>[18, 11]</t>
+          <t>[15, 14]</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>[22, 7]</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>[19, 10]</t>
+          <t>[16, 13]</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>[20, 9]</t>
+          <t>[17, 12]</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>[21, 8]</t>
+          <t>[18, 11]</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>[23, 6]</t>
+          <t>[19, 10]</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>[24, 5]</t>
+          <t>[20, 9]</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>[15, 14]</t>
+          <t>[21, 8]</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>[17, 12]</t>
+          <t>[23, 6]</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>[18, 11]</t>
+          <t>[24, 5]</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>[19, 10]</t>
+          <t>[15, 14]</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>[22, 7]</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>[20, 9]</t>
+          <t>[16, 13]</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>[21, 8]</t>
+          <t>[17, 12]</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>[23, 6]</t>
+          <t>[18, 11]</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>[24, 5]</t>
+          <t>[19, 10]</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>[15, 13]</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>[21, 7]</t>
+          <t>[20, 9]</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>[16, 12]</t>
+          <t>[21, 8]</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>[17, 11]</t>
+          <t>[23, 6]</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>[18, 10]</t>
+          <t>[24, 5]</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>[19, 9]</t>
+          <t>[15, 13]</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>[21, 7]</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>[20, 8]</t>
+          <t>[16, 12]</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>[22, 6]</t>
+          <t>[17, 11]</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>[23, 5]</t>
+          <t>[18, 10]</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>[24, 4]</t>
+          <t>[19, 9]</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>[15, 13]</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>[21, 7]</t>
+          <t>[20, 8]</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>[16, 12]</t>
+          <t>[22, 6]</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>[17, 11]</t>
+          <t>[23, 5]</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>[18, 10]</t>
+          <t>[24, 4]</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>[19, 9]</t>
+          <t>[15, 13]</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>[21, 7]</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>[20, 8]</t>
+          <t>[16, 12]</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>[22, 6]</t>
+          <t>[17, 11]</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>[23, 5]</t>
+          <t>[18, 10]</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>[24, 4]</t>
+          <t>[19, 9]</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>[16, [0, 0], [2, 1]]</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>[19, [2, 2], [3, 2]]</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>[1, [0, 3], [2, 3]]</t>
+          <t>[20, 8]</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>[10, [2, 3], [2, 0]]</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>[3, [1, 4], [1, 3]]</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>[8, [3, 3], [3, 0]]</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>[21, [3, 4], [3, 3]]</t>
+          <t>[22, 6]</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>[17, [1, 1], [4, 0]]</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>[20, [1, 3], [4, 4]]</t>
+          <t>[23, 5]</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>[5, [3, 0], [3, 4]]</t>
+          <t>[24, 4]</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>[24, [4, 1], [0, 3]]</t>
+          <t>[16, [0, 0], [2, 1]]</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>[19, [2, 2], [3, 2]]</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>[1, [0, 3], [2, 3]]</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>[14, [0, 2], [0, 0]]</t>
+          <t>[10, [2, 3], [2, 0]]</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>[7, [4, 3], [4, 2]]</t>
+          <t>[3, [1, 4], [1, 3]]</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>[11, [1, 2], [1, 0]]</t>
+          <t>[8, [3, 3], [3, 0]]</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>[21, [3, 4], [3, 3]]</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>[22, [4, 4], [1, 4]]</t>
+          <t>[17, [1, 1], [4, 0]]</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>[12, [2, 0], [0, 2]]</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>[2, [4, 0], [1, 2]]</t>
+          <t>[20, [1, 3], [4, 4]]</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>[9, [2, 4], [3, 1]]</t>
+          <t>[5, [3, 0], [3, 4]]</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>[13, [1, 0], [0, 1]]</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>[6, [4, 2], [4, 3]]</t>
+          <t>[24, [4, 1], [0, 3]]</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>[4, [3, 1], [2, 4]]</t>
+          <t>[14, [0, 2], [0, 0]]</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>[7, [4, 3], [4, 2]]</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>[11, [1, 2], [1, 0]]</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>[23, [3, 2], [2, 2]]</t>
+          <t>[22, [4, 4], [1, 4]]</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>[15, [0, 1], [1, 1]]</t>
+          <t>[12, [2, 0], [0, 2]]</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>[2, [4, 0], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>[18, [2, 1], [4, 1]]</t>
+          <t>[9, [2, 4], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>[[0, 4], [2, 3], [1, 2], [1, 3], [2, 4], [3, 4], [4, 3], [4, 2], [3, 0], [3, 1], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [4, 0], [4, 1], [3, 2], [4, 4], [3, 3], [1, 4], [2, 2], [0, 3]]</t>
+          <t>[13, [1, 0], [0, 1]]</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>[6, [4, 2], [4, 3]]</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>[14, 13]</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>[20, 7]</t>
+          <t>[4, [3, 1], [2, 4]]</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>[15, 12]</t>
+          <t>[23, [3, 2], [2, 2]]</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>[15, [0, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>[16, 11]</t>
+          <t>[18, [2, 1], [4, 1]]</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>[17, 10]</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>[22, 5]</t>
+          <t>[[0, 4], [2, 3], [1, 2], [1, 3], [2, 4], [3, 4], [4, 3], [4, 2], [3, 0], [3, 1], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [4, 0], [4, 1], [3, 2], [4, 4], [3, 3], [1, 4], [2, 2], [0, 3]]</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>[18, 9]</t>
+          <t>[14, 13]</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>[20, 7]</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>[19, 8]</t>
+          <t>[15, 12]</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>[21, 6]</t>
+          <t>[16, 11]</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>[23, 4]</t>
+          <t>[17, 10]</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>[22, 5]</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>[24, 3]</t>
+          <t>[18, 9]</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>[14, 13]</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>[20, 7]</t>
+          <t>[19, 8]</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>[15, 12]</t>
+          <t>[21, 6]</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>[16, 11]</t>
+          <t>[23, 4]</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>[17, 10]</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>[22, 5]</t>
+          <t>[24, 3]</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>[18, 9]</t>
+          <t>[14, 13]</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>[20, 7]</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>[19, 8]</t>
+          <t>[15, 12]</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>[21, 6]</t>
+          <t>[16, 11]</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>[23, 4]</t>
+          <t>[17, 10]</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>[22, 5]</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>[24, 3]</t>
+          <t>[18, 9]</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>[14, 12]</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>[20, 6]</t>
+          <t>[19, 8]</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>[15, 11]</t>
+          <t>[21, 6]</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>[16, 10]</t>
+          <t>[23, 4]</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>[17, 9]</t>
+          <t>[24, 3]</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>[18, 8]</t>
+          <t>[14, 12]</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>[24, 0]</t>
+          <t>[20, 6]</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>[19, 7]</t>
+          <t>[15, 11]</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>[21, 5]</t>
+          <t>[16, 10]</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>[22, 4]</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>[17, 8]</t>
+          <t>[17, 9]</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>[23, 3]</t>
+          <t>[18, 8]</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>[24, 2]</t>
+          <t>[19, 7]</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>[14, 12]</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>[20, 6]</t>
+          <t>[21, 5]</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>[15, 11]</t>
+          <t>[22, 4]</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>[16, 10]</t>
+          <t>[23, 3]</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>[17, 9]</t>
+          <t>[24, 2]</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>[18, 8]</t>
+          <t>[14, 12]</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>[24, 0]</t>
+          <t>[20, 6]</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>[19, 7]</t>
+          <t>[15, 11]</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>[21, 5]</t>
+          <t>[16, 10]</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>[22, 4]</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>[17, 8]</t>
+          <t>[17, 9]</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>[23, 3]</t>
+          <t>[18, 8]</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>[24, 2]</t>
+          <t>[19, 7]</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>[13, 12]</t>
+          <t>[21, 5]</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>[14, 11]</t>
-        </is>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>[20, 5]</t>
+          <t>[22, 4]</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>[15, 10]</t>
+          <t>[23, 3]</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>[16, 9]</t>
+          <t>[24, 2]</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>[18, 7]</t>
+          <t>[13, 12]</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>[19, 6]</t>
+          <t>[14, 11]</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>[20, 5]</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>[21, 4]</t>
+          <t>[15, 10]</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>[22, 3]</t>
+          <t>[16, 9]</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>[23, 2]</t>
+          <t>[17, 8]</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>[24, 1]</t>
+          <t>[18, 7]</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>[13, 12]</t>
+          <t>[19, 6]</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>[14, 11]</t>
-        </is>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>[20, 5]</t>
+          <t>[21, 4]</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>[15, 10]</t>
+          <t>[22, 3]</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>[16, 9]</t>
+          <t>[23, 2]</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>[18, 7]</t>
+          <t>[24, 1]</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>[19, 6]</t>
+          <t>[13, 12]</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>[21, 4]</t>
+          <t>[14, 11]</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>[20, 5]</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>[22, 3]</t>
+          <t>[15, 10]</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>[23, 2]</t>
+          <t>[16, 9]</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>[24, 1]</t>
+          <t>[17, 8]</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>[13, 11]</t>
+          <t>[18, 7]</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>[14, 10]</t>
+          <t>[19, 6]</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>[15, 9]</t>
+          <t>[21, 4]</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>[16, 8]</t>
+          <t>[22, 3]</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>[17, 7]</t>
+          <t>[23, 2]</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>[18, 6]</t>
+          <t>[24, 1]</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>[19, 5]</t>
+          <t>[13, 11]</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>[20, 4]</t>
+          <t>[14, 10]</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>[21, 3]</t>
+          <t>[15, 9]</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>[22, 2]</t>
+          <t>[16, 8]</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>[23, 1]</t>
+          <t>[17, 7]</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>[24, 0]</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>[13, 11]</t>
+          <t>[18, 6]</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>[14, 10]</t>
+          <t>[19, 5]</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>[15, 9]</t>
+          <t>[20, 4]</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>[16, 8]</t>
+          <t>[21, 3]</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>[17, 7]</t>
+          <t>[22, 2]</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>[18, 6]</t>
+          <t>[23, 1]</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>[19, 5]</t>
+          <t>[13, 11]</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>[20, 4]</t>
+          <t>[14, 10]</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>[21, 3]</t>
+          <t>[15, 9]</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>[22, 2]</t>
+          <t>[16, 8]</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>[23, 1]</t>
+          <t>[17, 7]</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>[24, 0]</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>[3, [1, 3], [3, 4]]</t>
-        </is>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>[15, [1, 1], [3, 0]]</t>
+          <t>[18, 6]</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>[9, [3, 1], [1, 0]]</t>
-        </is>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>[6, [4, 3], [4, 1]]</t>
+          <t>[19, 5]</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>[16, [2, 1], [4, 2]]</t>
-        </is>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>[14, [0, 0], [2, 1]]</t>
-        </is>
-      </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>[4, [2, 4], [4, 4]]</t>
+          <t>[20, 4]</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>[10, [2, 0], [0, 2]]</t>
-        </is>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>[20, [4, 4], [1, 4]]</t>
+          <t>[21, 3]</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>[21, [3, 3], [0, 3]]</t>
-        </is>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>[7, [4, 2], [3, 1]]</t>
+          <t>[22, 2]</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>[12, [0, 2], [0, 0]]</t>
-        </is>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>[22, [1, 4], [1, 3]]</t>
+          <t>[23, 1]</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>[1, [2, 3], [0, 4]]</t>
+          <t>[3, [1, 3], [3, 4]]</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>[17, [4, 0], [4, 3]]</t>
+          <t>[15, [1, 1], [3, 0]]</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>[18, [4, 1], [3, 3]]</t>
+          <t>[9, [3, 1], [1, 0]]</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>[19, [3, 2], [2, 4]]</t>
-        </is>
-      </c>
-      <c r="C359" t="inlineStr">
-        <is>
-          <t>[8, [3, 0], [2, 0]]</t>
+          <t>[6, [4, 3], [4, 1]]</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>[5, [3, 4], [3, 2]]</t>
+          <t>[16, [2, 1], [4, 2]]</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>[11, [1, 0], [0, 1]]</t>
+          <t>[14, [0, 0], [2, 1]]</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>[4, [2, 4], [4, 4]]</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>[24, [0, 3], [4, 0]]</t>
+          <t>[10, [2, 0], [0, 2]]</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>[20, [4, 4], [1, 4]]</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>[2, [1, 2], [2, 3]]</t>
+          <t>[21, [3, 3], [0, 3]]</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>[13, [0, 1], [1, 1]]</t>
+          <t>[7, [4, 2], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>[0, [0, 4], [1, 2]]</t>
+          <t>[12, [0, 2], [0, 0]]</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>[22, [1, 4], [1, 3]]</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>[[1, 2], [0, 4], [2, 3], [3, 4], [4, 4], [3, 2], [4, 1], [3, 1], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [3, 0], [4, 2], [4, 3], [3, 3], [2, 4], [1, 4], [0, 3], [1, 3], [2, 2], [4, 0]]</t>
+          <t>[1, [2, 3], [0, 4]]</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>[17, [4, 0], [4, 3]]</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>[12, 11]</t>
+          <t>[18, [4, 1], [3, 3]]</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>[17, 4]</t>
+          <t>[19, [3, 2], [2, 4]]</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>[8, [3, 0], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>[13, 10]</t>
+          <t>[5, [3, 4], [3, 2]]</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>[11, [1, 0], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>[14, 9]</t>
+          <t>[24, [0, 3], [4, 0]]</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>[15, 8]</t>
+          <t>[2, [1, 2], [2, 3]]</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>[20, 1]</t>
+          <t>[13, [0, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>[16, 7]</t>
+          <t>[0, [0, 4], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>[17, 6]</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>[12, 10]</t>
+          <t>[[1, 2], [0, 4], [2, 3], [3, 4], [4, 4], [3, 2], [4, 1], [3, 1], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [3, 0], [4, 2], [4, 3], [3, 3], [2, 4], [1, 4], [0, 3], [1, 3], [2, 2], [4, 0]]</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>[18, 5]</t>
+          <t>[12, 11]</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>[19, 4]</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>[12, 9]</t>
+          <t>[13, 10]</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>[20, 3]</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>[12, 8]</t>
+          <t>[14, 9]</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>[21, 2]</t>
+          <t>[15, 8]</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>[22, 1]</t>
+          <t>[16, 7]</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>[23, 0]</t>
+          <t>[17, 6]</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>[12, 11]</t>
-        </is>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>[17, 4]</t>
+          <t>[18, 5]</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>[13, 10]</t>
+          <t>[19, 4]</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>[14, 9]</t>
+          <t>[20, 3]</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>[15, 8]</t>
-        </is>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>[20, 1]</t>
+          <t>[21, 2]</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>[16, 7]</t>
+          <t>[22, 1]</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>[17, 6]</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>[12, 10]</t>
+          <t>[23, 0]</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>[18, 5]</t>
+          <t>[12, 11]</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>[19, 4]</t>
-        </is>
-      </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>[12, 9]</t>
+          <t>[13, 10]</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>[20, 3]</t>
-        </is>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>[12, 8]</t>
+          <t>[14, 9]</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>[21, 2]</t>
+          <t>[15, 8]</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>[22, 1]</t>
+          <t>[16, 7]</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>[23, 0]</t>
+          <t>[17, 6]</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>[13, 9]</t>
+          <t>[18, 5]</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>[14, 8]</t>
+          <t>[19, 4]</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>[15, 7]</t>
+          <t>[20, 3]</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>[16, 6]</t>
-        </is>
-      </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>[21, 1]</t>
+          <t>[21, 2]</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>[17, 5]</t>
+          <t>[22, 1]</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>[18, 4]</t>
+          <t>[23, 0]</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>[19, 3]</t>
+          <t>[12, 10]</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>[20, 2]</t>
+          <t>[13, 9]</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>[22, 0]</t>
+          <t>[14, 8]</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>[13, 9]</t>
+          <t>[15, 7]</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>[14, 8]</t>
+          <t>[16, 6]</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>[21, 1]</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>[15, 7]</t>
+          <t>[17, 5]</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>[16, 6]</t>
-        </is>
-      </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>[21, 1]</t>
+          <t>[18, 4]</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>[17, 5]</t>
+          <t>[19, 3]</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>[18, 4]</t>
+          <t>[20, 2]</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>[19, 3]</t>
+          <t>[22, 0]</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>[20, 2]</t>
+          <t>[12, 10]</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>[22, 0]</t>
+          <t>[13, 9]</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>[11, 10]</t>
+          <t>[14, 8]</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>[13, 8]</t>
+          <t>[15, 7]</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>[14, 7]</t>
+          <t>[16, 6]</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>[21, 1]</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>[15, 6]</t>
+          <t>[17, 5]</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>[16, 5]</t>
+          <t>[18, 4]</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>[18, 3]</t>
+          <t>[19, 3]</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>[19, 2]</t>
+          <t>[20, 2]</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>[21, 0]</t>
+          <t>[22, 0]</t>
         </is>
       </c>
     </row>
@@ -3785,2487 +3705,2603 @@
           <t>[11, 10]</t>
         </is>
       </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>[17, 4]</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>[13, 8]</t>
+          <t>[12, 9]</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>[14, 7]</t>
+          <t>[13, 8]</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>[15, 6]</t>
+          <t>[14, 7]</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>[16, 5]</t>
+          <t>[15, 6]</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>[20, 1]</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>[18, 3]</t>
+          <t>[16, 5]</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>[19, 2]</t>
+          <t>[18, 3]</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>[21, 0]</t>
+          <t>[19, 2]</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>[11, 9]</t>
-        </is>
-      </c>
-      <c r="B423" t="inlineStr">
-        <is>
-          <t>[17, 3]</t>
+          <t>[21, 0]</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>[13, 7]</t>
+          <t>[11, 10]</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>[17, 4]</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>[14, 6]</t>
+          <t>[12, 9]</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>[15, 5]</t>
+          <t>[13, 8]</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>[16, 4]</t>
+          <t>[14, 7]</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>[18, 2]</t>
+          <t>[15, 6]</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>[20, 1]</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>[19, 1]</t>
+          <t>[16, 5]</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>[20, 0]</t>
+          <t>[18, 3]</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>[11, 9]</t>
-        </is>
-      </c>
-      <c r="B431" t="inlineStr">
-        <is>
-          <t>[17, 3]</t>
+          <t>[19, 2]</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>[13, 7]</t>
+          <t>[21, 0]</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>[14, 6]</t>
+          <t>[11, 9]</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>[17, 3]</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>[15, 5]</t>
+          <t>[12, 8]</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>[16, 4]</t>
+          <t>[13, 7]</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>[18, 2]</t>
+          <t>[14, 6]</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>[19, 1]</t>
+          <t>[15, 5]</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>[20, 0]</t>
+          <t>[16, 4]</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>[7, [3, 1], [1, 0]]</t>
-        </is>
-      </c>
-      <c r="B439" t="inlineStr">
-        <is>
-          <t>[16, [4, 2], [4, 4]]</t>
+          <t>[18, 2]</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>[14, [2, 1], [1, 3]]</t>
-        </is>
-      </c>
-      <c r="B440" t="inlineStr">
-        <is>
-          <t>[3, [3, 4], [2, 4]]</t>
-        </is>
-      </c>
-      <c r="C440" t="inlineStr">
-        <is>
-          <t>[9, [1, 0], [0, 1]]</t>
+          <t>[19, 1]</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>[8, [2, 0], [0, 2]]</t>
-        </is>
-      </c>
-      <c r="B441" t="inlineStr">
-        <is>
-          <t>[4, [4, 4], [2, 3]]</t>
+          <t>[20, 0]</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>[15, [3, 0], [3, 4]]</t>
+          <t>[11, 9]</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>[17, 3]</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>[1, [0, 4], [4, 3]]</t>
+          <t>[12, 8]</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>[10, [0, 2], [0, 0]]</t>
-        </is>
-      </c>
-      <c r="B444" t="inlineStr">
-        <is>
-          <t>[19, [2, 4], [3, 1]]</t>
-        </is>
-      </c>
-      <c r="C444" t="inlineStr">
-        <is>
-          <t>[23, [2, 2], [3, 0]]</t>
+          <t>[13, 7]</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>[6, [4, 1], [2, 0]]</t>
-        </is>
-      </c>
-      <c r="B445" t="inlineStr">
-        <is>
-          <t>[22, [1, 3], [0, 4]]</t>
-        </is>
-      </c>
-      <c r="C445" t="inlineStr">
-        <is>
-          <t>[5, [3, 2], [1, 2]]</t>
+          <t>[14, 6]</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>[0, [1, 2], [4, 2]]</t>
-        </is>
-      </c>
-      <c r="B446" t="inlineStr">
-        <is>
-          <t>[12, [0, 0], [2, 1]]</t>
+          <t>[15, 5]</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>[17, [4, 3], [3, 2]]</t>
-        </is>
-      </c>
-      <c r="B447" t="inlineStr">
-        <is>
-          <t>[11, [0, 1], [1, 1]]</t>
+          <t>[16, 4]</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>[13, [1, 1], [2, 2]]</t>
-        </is>
-      </c>
-      <c r="B448" t="inlineStr">
-        <is>
-          <t>[2, [2, 3], [3, 3]]</t>
+          <t>[18, 2]</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>[18, [3, 3], [4, 1]]</t>
+          <t>[19, 1]</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>[[4, 2], [4, 3], [3, 3], [2, 4], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [1, 3], [3, 4], [4, 4], [3, 2], [4, 1], [3, 1], [1, 4], [0, 3], [0, 4], [3, 0], [4, 0]]</t>
+          <t>[20, 0]</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>[10, 9]</t>
+          <t>[7, [3, 1], [1, 0]]</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>[16, 1]</t>
+          <t>[16, [4, 2], [4, 4]]</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>[11, 8]</t>
+          <t>[14, [2, 1], [1, 3]]</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>[3, [3, 4], [2, 4]]</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>[9, [1, 0], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>[12, 7]</t>
+          <t>[8, [2, 0], [0, 2]]</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>[4, [4, 4], [2, 3]]</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>[13, 6]</t>
+          <t>[15, [3, 0], [3, 4]]</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>[14, 5]</t>
+          <t>[1, [0, 4], [4, 3]]</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>[15, 4]</t>
+          <t>[10, [0, 2], [0, 0]]</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>[19, [2, 4], [3, 1]]</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>[23, [2, 2], [3, 0]]</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>[16, 3]</t>
+          <t>[6, [4, 1], [2, 0]]</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>[10, 7]</t>
+          <t>[22, [1, 3], [0, 4]]</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>[5, [3, 2], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>[17, 2]</t>
+          <t>[0, [1, 2], [4, 2]]</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>[12, [0, 0], [2, 1]]</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>[18, 1]</t>
+          <t>[17, [4, 3], [3, 2]]</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>[10, 8]</t>
+          <t>[11, [0, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>[19, 0]</t>
+          <t>[13, [1, 1], [2, 2]]</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>[2, [2, 3], [3, 3]]</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>[10, 9]</t>
-        </is>
-      </c>
-      <c r="B461" t="inlineStr">
-        <is>
-          <t>[16, 1]</t>
+          <t>[18, [3, 3], [4, 1]]</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>[11, 8]</t>
+          <t>[[4, 2], [4, 3], [3, 3], [2, 4], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [1, 3], [3, 4], [4, 4], [3, 2], [4, 1], [3, 1], [1, 4], [0, 3], [0, 4], [3, 0], [4, 0]]</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>[12, 7]</t>
+          <t>[10, 9]</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>[13, 6]</t>
+          <t>[11, 8]</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>[14, 5]</t>
+          <t>[12, 7]</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>[15, 4]</t>
+          <t>[13, 6]</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>[16, 3]</t>
-        </is>
-      </c>
-      <c r="B467" t="inlineStr">
-        <is>
-          <t>[10, 7]</t>
+          <t>[14, 5]</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>[17, 2]</t>
+          <t>[15, 4]</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>[18, 1]</t>
-        </is>
-      </c>
-      <c r="B469" t="inlineStr">
-        <is>
-          <t>[10, 8]</t>
+          <t>[16, 3]</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>[19, 0]</t>
+          <t>[17, 2]</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>[11, 7]</t>
+          <t>[18, 1]</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>[12, 6]</t>
+          <t>[19, 0]</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>[13, 5]</t>
+          <t>[10, 9]</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>[14, 4]</t>
+          <t>[11, 8]</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>[15, 3]</t>
+          <t>[12, 7]</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>[16, 2]</t>
+          <t>[13, 6]</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>[17, 1]</t>
+          <t>[14, 5]</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>[18, 0]</t>
+          <t>[15, 4]</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>[11, 7]</t>
+          <t>[16, 3]</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>[12, 6]</t>
+          <t>[17, 2]</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>[13, 5]</t>
+          <t>[18, 1]</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>[14, 4]</t>
+          <t>[19, 0]</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>[15, 3]</t>
+          <t>[10, 8]</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>[16, 2]</t>
+          <t>[11, 7]</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>[17, 1]</t>
+          <t>[12, 6]</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>[18, 0]</t>
+          <t>[13, 5]</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>[9, 8]</t>
+          <t>[14, 4]</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>[11, 6]</t>
+          <t>[15, 3]</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>[12, 5]</t>
+          <t>[16, 2]</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>[13, 4]</t>
+          <t>[17, 1]</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>[14, 3]</t>
+          <t>[18, 0]</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>[15, 2]</t>
+          <t>[10, 8]</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>[17, 0]</t>
+          <t>[11, 7]</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>[9, 8]</t>
+          <t>[12, 6]</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>[11, 6]</t>
+          <t>[13, 5]</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>[12, 5]</t>
+          <t>[14, 4]</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>[13, 4]</t>
+          <t>[15, 3]</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>[14, 3]</t>
+          <t>[16, 2]</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>[15, 2]</t>
+          <t>[17, 1]</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>[17, 0]</t>
+          <t>[18, 0]</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>[9, 7]</t>
+          <t>[9, 8]</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>[15, 1]</t>
+          <t>[16, 1]</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>[10, 6]</t>
+          <t>[10, 7]</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>[11, 5]</t>
+          <t>[11, 6]</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>[12, 4]</t>
+          <t>[12, 5]</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>[13, 3]</t>
+          <t>[13, 4]</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>[14, 2]</t>
+          <t>[14, 3]</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>[16, 0]</t>
+          <t>[15, 2]</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>[9, 7]</t>
-        </is>
-      </c>
-      <c r="B508" t="inlineStr">
-        <is>
-          <t>[15, 1]</t>
+          <t>[17, 0]</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>[10, 6]</t>
+          <t>[9, 8]</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>[16, 1]</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>[11, 5]</t>
+          <t>[10, 7]</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>[12, 4]</t>
+          <t>[11, 6]</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>[13, 3]</t>
+          <t>[12, 5]</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>[14, 2]</t>
+          <t>[13, 4]</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>[16, 0]</t>
+          <t>[14, 3]</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>[12, [2, 1], [0, 3]]</t>
-        </is>
-      </c>
-      <c r="B515" t="inlineStr">
-        <is>
-          <t>[6, [2, 0], [0, 2]]</t>
-        </is>
-      </c>
-      <c r="C515" t="inlineStr">
-        <is>
-          <t>[0, [4, 2], [1, 4]]</t>
+          <t>[15, 2]</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>[21, [0, 3], [4, 3]]</t>
+          <t>[17, 0]</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>[22, [0, 4], [4, 2]]</t>
+          <t>[9, 7]</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>[15, 1]</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>[8, [0, 2], [0, 0]]</t>
-        </is>
-      </c>
-      <c r="B518" t="inlineStr">
-        <is>
-          <t>[5, [1, 2], [1, 0]]</t>
-        </is>
-      </c>
-      <c r="C518" t="inlineStr">
-        <is>
-          <t>[2, [3, 3], [2, 3]]</t>
+          <t>[10, 6]</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>[10, [0, 0], [2, 1]]</t>
-        </is>
-      </c>
-      <c r="B519" t="inlineStr">
-        <is>
-          <t>[20, [1, 4], [3, 3]]</t>
+          <t>[11, 5]</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>[1, [4, 3], [1, 3]]</t>
-        </is>
-      </c>
-      <c r="B520" t="inlineStr">
-        <is>
-          <t>[7, [1, 0], [0, 1]]</t>
+          <t>[12, 4]</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>[13, [2, 2], [2, 4]]</t>
-        </is>
-      </c>
-      <c r="B521" t="inlineStr">
-        <is>
-          <t>[9, [0, 1], [1, 1]]</t>
+          <t>[13, 3]</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>[4, [2, 3], [2, 0]]</t>
+          <t>[14, 2]</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>[14, [1, 3], [0, 4]]</t>
+          <t>[16, 0]</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>[3, [2, 4], [1, 2]]</t>
+          <t>[9, 7]</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>[15, 1]</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>[11, [1, 1], [2, 2]]</t>
+          <t>[10, 6]</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>[[1, 4], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [2, 4], [0, 4], [3, 4], [4, 4], [3, 2], [4, 1], [3, 1], [3, 3], [4, 3], [4, 2], [3, 0], [4, 0]]</t>
+          <t>[11, 5]</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>[8, 7]</t>
+          <t>[12, 4]</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>[9, 6]</t>
+          <t>[13, 3]</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>[10, 5]</t>
+          <t>[14, 2]</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>[11, 4]</t>
+          <t>[16, 0]</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>[12, 3]</t>
+          <t>[12, [2, 1], [0, 3]]</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>[6, [2, 0], [0, 2]]</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>[0, [4, 2], [1, 4]]</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>[13, 2]</t>
+          <t>[21, [0, 3], [4, 3]]</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>[14, 1]</t>
+          <t>[22, [0, 4], [4, 2]]</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>[15, 0]</t>
+          <t>[8, [0, 2], [0, 0]]</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>[8, 4]</t>
+          <t>[5, [1, 2], [1, 0]]</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>[2, [3, 3], [2, 3]]</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>[8, 7]</t>
+          <t>[10, [0, 0], [2, 1]]</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>[20, [1, 4], [3, 3]]</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>[9, 6]</t>
+          <t>[1, [4, 3], [1, 3]]</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>[7, [1, 0], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>[10, 5]</t>
+          <t>[13, [2, 2], [2, 4]]</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>[9, [0, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>[11, 4]</t>
+          <t>[4, [2, 3], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>[12, 3]</t>
+          <t>[14, [1, 3], [0, 4]]</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>[13, 2]</t>
+          <t>[3, [2, 4], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>[14, 1]</t>
+          <t>[11, [1, 1], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>[15, 0]</t>
-        </is>
-      </c>
-      <c r="B542" t="inlineStr">
-        <is>
-          <t>[8, 4]</t>
+          <t>[[1, 4], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [2, 4], [0, 4], [3, 4], [4, 4], [3, 2], [4, 1], [3, 1], [3, 3], [4, 3], [4, 2], [3, 0], [4, 0]]</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>[8, 6]</t>
+          <t>[8, 7]</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>[9, 5]</t>
+          <t>[9, 6]</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>[10, 4]</t>
+          <t>[10, 5]</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>[11, 3]</t>
+          <t>[11, 4]</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>[12, 2]</t>
+          <t>[12, 3]</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>[13, 1]</t>
+          <t>[13, 2]</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>[14, 0]</t>
+          <t>[14, 1]</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>[8, 6]</t>
+          <t>[15, 0]</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>[9, 5]</t>
+          <t>[8, 7]</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>[10, 4]</t>
+          <t>[9, 6]</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>[11, 3]</t>
+          <t>[10, 5]</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>[12, 2]</t>
+          <t>[11, 4]</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>[13, 1]</t>
+          <t>[12, 3]</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>[14, 0]</t>
+          <t>[13, 2]</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>[7, 6]</t>
+          <t>[14, 1]</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>[8, 5]</t>
+          <t>[15, 0]</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>[9, 4]</t>
+          <t>[8, 6]</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>[10, 3]</t>
+          <t>[9, 5]</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>[11, 2]</t>
+          <t>[10, 4]</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>[12, 1]</t>
+          <t>[11, 3]</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>[13, 0]</t>
+          <t>[12, 2]</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>[7, 6]</t>
+          <t>[13, 1]</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>[8, 5]</t>
+          <t>[14, 0]</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>[9, 4]</t>
+          <t>[8, 6]</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>[10, 3]</t>
+          <t>[9, 5]</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>[11, 2]</t>
+          <t>[10, 4]</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>[12, 1]</t>
+          <t>[11, 3]</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>[13, 0]</t>
+          <t>[12, 2]</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>[7, 5]</t>
+          <t>[13, 1]</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>[9, 3]</t>
+          <t>[14, 0]</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>[10, 2]</t>
+          <t>[7, 6]</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>[11, 1]</t>
+          <t>[8, 5]</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>[12, 0]</t>
+          <t>[9, 4]</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>[7, 5]</t>
+          <t>[10, 3]</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>[9, 3]</t>
+          <t>[11, 2]</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>[10, 2]</t>
+          <t>[12, 1]</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>[11, 1]</t>
+          <t>[13, 0]</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>[12, 0]</t>
+          <t>[7, 6]</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>[13, [2, 4], [3, 2]]</t>
-        </is>
-      </c>
-      <c r="B581" t="inlineStr">
-        <is>
-          <t>[23, [3, 0], [4, 0]]</t>
-        </is>
-      </c>
-      <c r="C581" t="inlineStr">
-        <is>
-          <t>[3, [1, 2], [1, 1]]</t>
-        </is>
-      </c>
-      <c r="D581" t="inlineStr">
-        <is>
-          <t>[6, [0, 2], [0, 1]]</t>
+          <t>[8, 5]</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>[9, [1, 1], [0, 4]]</t>
-        </is>
-      </c>
-      <c r="B582" t="inlineStr">
-        <is>
-          <t>[5, [1, 0], [0, 0]]</t>
-        </is>
-      </c>
-      <c r="C582" t="inlineStr">
-        <is>
-          <t>[4, [2, 0], [1, 0]]</t>
+          <t>[9, 4]</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>[11, [2, 2], [3, 4]]</t>
-        </is>
-      </c>
-      <c r="B583" t="inlineStr">
-        <is>
-          <t>[7, [0, 1], [1, 2]]</t>
+          <t>[10, 3]</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>[12, [0, 3], [3, 3]]</t>
+          <t>[11, 2]</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>[8, [0, 0], [1, 3]]</t>
-        </is>
-      </c>
-      <c r="B585" t="inlineStr">
-        <is>
-          <t>[15, [3, 4], [2, 4]]</t>
+          <t>[12, 1]</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>[14, [0, 4], [2, 1]]</t>
-        </is>
-      </c>
-      <c r="B586" t="inlineStr">
-        <is>
-          <t>[17, [3, 2], [3, 0]]</t>
+          <t>[13, 0]</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>[16, [4, 4], [2, 2]]</t>
+          <t>[7, 5]</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>[20, [3, 3], [2, 0]]</t>
+          <t>[8, 4]</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>[24, [4, 0], [4, 4]]</t>
+          <t>[9, 3]</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>[10, [2, 1], [2, 3]]</t>
+          <t>[10, 2]</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>[2, [2, 3], [0, 2]]</t>
+          <t>[11, 1]</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>[1, [1, 3], [0, 3]]</t>
+          <t>[12, 0]</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>[[1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [2, 3], [3, 4], [3, 3], [3, 2], [2, 1], [2, 4], [2, 2], [3, 0], [4, 1], [3, 1], [2, 0], [4, 3], [4, 2], [4, 0], [4, 4]]</t>
+          <t>[7, 5]</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>[6, 5]</t>
+          <t>[8, 4]</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>[7, 4]</t>
+          <t>[9, 3]</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>[8, 3]</t>
+          <t>[10, 2]</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>[9, 2]</t>
+          <t>[11, 1]</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>[10, 1]</t>
+          <t>[12, 0]</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>[11, 0]</t>
+          <t>[13, [2, 4], [3, 2]]</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>[23, [3, 0], [4, 0]]</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>[3, [1, 2], [1, 1]]</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>[6, [0, 2], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>[6, 5]</t>
+          <t>[9, [1, 1], [0, 4]]</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>[5, [1, 0], [0, 0]]</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>[4, [2, 0], [1, 0]]</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>[7, 4]</t>
+          <t>[11, [2, 2], [3, 4]]</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>[7, [0, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>[8, 3]</t>
+          <t>[12, [0, 3], [3, 3]]</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>[9, 2]</t>
+          <t>[8, [0, 0], [1, 3]]</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>[15, [3, 4], [2, 4]]</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>[10, 1]</t>
+          <t>[14, [0, 4], [2, 1]]</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>[17, [3, 2], [3, 0]]</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>[11, 0]</t>
+          <t>[16, [4, 4], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>[6, 4]</t>
+          <t>[20, [3, 3], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>[7, 3]</t>
+          <t>[24, [4, 0], [4, 4]]</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>[8, 2]</t>
+          <t>[10, [2, 1], [2, 3]]</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>[9, 1]</t>
+          <t>[2, [2, 3], [0, 2]]</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>[10, 0]</t>
+          <t>[1, [1, 3], [0, 3]]</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>[11, 13]</t>
+          <t>[[1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [2, 3], [3, 4], [3, 3], [3, 2], [2, 1], [2, 4], [2, 2], [3, 0], [4, 1], [3, 1], [2, 0], [4, 3], [4, 2], [4, 0], [4, 4]]</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>[6, 4]</t>
+          <t>[6, 5]</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>[7, 3]</t>
+          <t>[7, 4]</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>[8, 2]</t>
+          <t>[8, 3]</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>[9, 1]</t>
+          <t>[9, 2]</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>[10, 0]</t>
+          <t>[10, 1]</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>[13, 11]</t>
+          <t>[11, 0]</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>[5, 4]</t>
+          <t>[6, 5]</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>[6, 3]</t>
+          <t>[7, 4]</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>[7, 2]</t>
+          <t>[8, 3]</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>[8, 1]</t>
+          <t>[9, 2]</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>[9, 0]</t>
+          <t>[10, 1]</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>[11, 13]</t>
+          <t>[11, 0]</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>[10, 14]</t>
+          <t>[6, 4]</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>[5, 4]</t>
+          <t>[7, 3]</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>[6, 3]</t>
+          <t>[8, 2]</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>[7, 2]</t>
+          <t>[9, 1]</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>[8, 1]</t>
+          <t>[10, 0]</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>[9, 0]</t>
+          <t>[11, 13]</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>[14, 10]</t>
+          <t>[6, 4]</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>[5, 3]</t>
+          <t>[7, 3]</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>[6, 2]</t>
+          <t>[8, 2]</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>[7, 1]</t>
+          <t>[9, 1]</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>[8, 0]</t>
+          <t>[10, 0]</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>[10, 14]</t>
+          <t>[13, 11]</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>[9, 15]</t>
+          <t>[5, 4]</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>[5, 3]</t>
+          <t>[6, 3]</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>[6, 2]</t>
+          <t>[7, 2]</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>[7, 1]</t>
+          <t>[8, 1]</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>[8, 0]</t>
+          <t>[9, 0]</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>[15, 9]</t>
+          <t>[11, 13]</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>[4, 3]</t>
+          <t>[10, 14]</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>[5, 2]</t>
+          <t>[5, 4]</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>[6, 1]</t>
+          <t>[6, 3]</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>[7, 0]</t>
+          <t>[7, 2]</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>[9, 15]</t>
+          <t>[8, 1]</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>[8, 16]</t>
+          <t>[9, 0]</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>[4, 3]</t>
+          <t>[14, 10]</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>[5, 2]</t>
+          <t>[5, 3]</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>[6, 1]</t>
+          <t>[6, 2]</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>[7, 0]</t>
+          <t>[7, 1]</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>[16, 8]</t>
+          <t>[8, 0]</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>[17, [3, 0], [3, 2]]</t>
-        </is>
-      </c>
-      <c r="B653" t="inlineStr">
-        <is>
-          <t>[16, [2, 2], [2, 4]]</t>
+          <t>[10, 14]</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>[14, [2, 1], [4, 0]]</t>
-        </is>
-      </c>
-      <c r="B654" t="inlineStr">
-        <is>
-          <t>[15, [2, 4], [4, 4]]</t>
-        </is>
-      </c>
-      <c r="C654" t="inlineStr">
-        <is>
-          <t>[8, [1, 3], [2, 3]]</t>
-        </is>
-      </c>
-      <c r="D654" t="inlineStr">
-        <is>
-          <t>[2, [0, 2], [0, 1]]</t>
+          <t>[9, 15]</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>[5, [0, 0], [1, 3]]</t>
-        </is>
-      </c>
-      <c r="B655" t="inlineStr">
-        <is>
-          <t>[10, [2, 3], [3, 4]]</t>
+          <t>[5, 3]</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>[21, [4, 3], [1, 4]]</t>
-        </is>
-      </c>
-      <c r="B656" t="inlineStr">
-        <is>
-          <t>[4, [1, 0], [0, 0]]</t>
+          <t>[6, 2]</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>[19, [3, 1], [0, 4]]</t>
-        </is>
-      </c>
-      <c r="B657" t="inlineStr">
-        <is>
-          <t>[23, [4, 0], [2, 2]]</t>
+          <t>[7, 1]</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>[18, [4, 1], [2, 1]]</t>
-        </is>
-      </c>
-      <c r="B658" t="inlineStr">
-        <is>
-          <t>[1, [0, 3], [0, 2]]</t>
+          <t>[8, 0]</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>[0, [1, 4], [1, 1]]</t>
-        </is>
-      </c>
-      <c r="B659" t="inlineStr">
-        <is>
-          <t>[24, [4, 4], [3, 1]]</t>
+          <t>[15, 9]</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>[9, [0, 4], [3, 3]]</t>
-        </is>
-      </c>
-      <c r="B660" t="inlineStr">
-        <is>
-          <t>[12, [3, 3], [4, 2]]</t>
-        </is>
-      </c>
-      <c r="C660" t="inlineStr">
-        <is>
-          <t>[11, [3, 4], [4, 3]]</t>
-        </is>
-      </c>
-      <c r="D660" t="inlineStr">
-        <is>
-          <t>[13, [3, 2], [4, 1]]</t>
+          <t>[4, 3]</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>[22, [4, 2], [0, 3]]</t>
+          <t>[5, 2]</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>[6, [0, 1], [1, 0]]</t>
+          <t>[6, 1]</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>[7, [1, 2], [3, 0]]</t>
+          <t>[7, 0]</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>[3, [1, 1], [1, 2]]</t>
+          <t>[9, 15]</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>[[1, 1], [0, 2], [0, 1], [1, 2], [0, 0], [1, 3], [1, 0], [3, 0], [2, 3], [3, 3], [3, 4], [4, 3], [4, 2], [4, 1], [4, 0], [4, 4], [2, 4], [3, 2], [2, 1], [0, 4], [2, 0], [1, 4], [0, 3], [2, 2], [3, 1]]</t>
+          <t>[8, 16]</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>[4, 2]</t>
+          <t>[4, 3]</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>[5, 1]</t>
+          <t>[5, 2]</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>[6, 0]</t>
+          <t>[6, 1]</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>[8, 16]</t>
+          <t>[7, 0]</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>[7, 17]</t>
+          <t>[16, 8]</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>[4, 2]</t>
+          <t>[17, [3, 0], [3, 2]]</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>[16, [2, 2], [2, 4]]</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>[5, 1]</t>
+          <t>[14, [2, 1], [4, 0]]</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>[15, [2, 4], [4, 4]]</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>[8, [1, 3], [2, 3]]</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>[2, [0, 2], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>[6, 0]</t>
+          <t>[5, [0, 0], [1, 3]]</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>[10, [2, 3], [3, 4]]</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>[17, 7]</t>
+          <t>[21, [4, 3], [1, 4]]</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>[4, [1, 0], [0, 0]]</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>[3, 2]</t>
+          <t>[19, [3, 1], [0, 4]]</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>[23, [4, 0], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>[4, 1]</t>
+          <t>[18, [4, 1], [2, 1]]</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>[1, [0, 3], [0, 2]]</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>[5, 0]</t>
+          <t>[0, [1, 4], [1, 1]]</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>[24, [4, 4], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>[7, 17]</t>
+          <t>[9, [0, 4], [3, 3]]</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>[12, [3, 3], [4, 2]]</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>[11, [3, 4], [4, 3]]</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>[13, [3, 2], [4, 1]]</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>[6, 18]</t>
+          <t>[22, [4, 2], [0, 3]]</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>[3, 2]</t>
+          <t>[6, [0, 1], [1, 0]]</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>[4, 1]</t>
+          <t>[7, [1, 2], [3, 0]]</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>[5, 0]</t>
+          <t>[3, [1, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>[18, 6]</t>
+          <t>[[1, 1], [0, 2], [0, 1], [1, 2], [0, 0], [1, 3], [1, 0], [3, 0], [2, 3], [3, 3], [3, 4], [4, 3], [4, 2], [4, 1], [4, 0], [4, 4], [2, 4], [3, 2], [2, 1], [0, 4], [2, 0], [1, 4], [0, 3], [2, 2], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>[3, 1]</t>
+          <t>[4, 2]</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>[4, 0]</t>
+          <t>[5, 1]</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>[6, 18]</t>
+          <t>[6, 0]</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>[5, 19]</t>
+          <t>[8, 16]</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>[3, 1]</t>
+          <t>[7, 17]</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>[4, 0]</t>
+          <t>[4, 2]</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>[19, 5]</t>
+          <t>[5, 1]</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>[2, 1]</t>
+          <t>[6, 0]</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>[3, 0]</t>
+          <t>[17, 7]</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>[5, 19]</t>
+          <t>[3, 2]</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>[4, 20]</t>
+          <t>[4, 1]</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>[2, 1]</t>
+          <t>[5, 0]</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>[3, 0]</t>
+          <t>[7, 17]</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>[20, 4]</t>
+          <t>[6, 18]</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>[2, 0]</t>
+          <t>[3, 2]</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>[4, 20]</t>
+          <t>[4, 1]</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>[3, 21]</t>
+          <t>[5, 0]</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>[2, 0]</t>
+          <t>[18, 6]</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>[21, 3]</t>
+          <t>[3, 1]</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[4, 0]</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>[3, 21]</t>
+          <t>[6, 18]</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>[2, 22]</t>
+          <t>[5, 19]</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[3, 1]</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>[22, 2]</t>
+          <t>[4, 0]</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>[2, 22]</t>
+          <t>[19, 5]</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>[1, 23]</t>
+          <t>[2, 1]</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>[0, 24]</t>
+          <t>[3, 0]</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>[23, 1]</t>
+          <t>[5, 19]</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>[24, 0]</t>
+          <t>[4, 20]</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>[1, 23]</t>
+          <t>[2, 1]</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>[0, 24]</t>
+          <t>[3, 0]</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>Fidelity:</t>
-        </is>
-      </c>
-      <c r="B715" t="n">
-        <v>0.03466832629518152</v>
+          <t>[20, 4]</t>
+        </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t_idle:</t>
-        </is>
-      </c>
-      <c r="B716" t="n">
-        <v>260928.293971739</v>
+          <t>[2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>move_fidelity</t>
-        </is>
-      </c>
-      <c r="B717" t="n">
-        <v>0.9931405542984826</v>
+          <t>[4, 20]</t>
+        </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>Movement times</t>
-        </is>
-      </c>
-      <c r="B718" t="n">
-        <v>109</v>
+          <t>[3, 21]</t>
+        </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>parallel times</t>
-        </is>
-      </c>
-      <c r="B719" t="n">
-        <v>588</v>
+          <t>[2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>partitions</t>
-        </is>
-      </c>
-      <c r="B720" t="n">
-        <v>10</v>
+          <t>[21, 3]</t>
+        </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>total time:</t>
-        </is>
-      </c>
-      <c r="B721" t="n">
-        <v>0.1434009075164795</v>
+          <t>[1, 0]</t>
+        </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
+          <t>[3, 21]</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>[2, 22]</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>[1, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>[22, 2]</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>[2, 22]</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>[1, 23]</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>[0, 24]</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>[23, 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>[24, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>[1, 23]</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>[0, 24]</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>Fidelity:</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>0.03466624625800555</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>t_idle:</t>
+        </is>
+      </c>
+      <c r="B734" t="n">
+        <v>261018.293971739</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>move_fidelity</t>
+        </is>
+      </c>
+      <c r="B735" t="n">
+        <v>0.9931405542984826</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>Movement times</t>
+        </is>
+      </c>
+      <c r="B736" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>parallel times</t>
+        </is>
+      </c>
+      <c r="B737" t="n">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>partitions</t>
+        </is>
+      </c>
+      <c r="B738" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B739" t="n">
+        <v>0.1260790824890137</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B722" t="inlineStr">
+      <c r="B740" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C722" t="inlineStr">
+      <c r="C740" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D722" t="inlineStr">
+      <c r="D740" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E722" t="inlineStr">
+      <c r="E740" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F722" t="inlineStr">
+      <c r="F740" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G722" t="inlineStr">
+      <c r="G740" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H722" t="inlineStr">
+      <c r="H740" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I722" t="inlineStr">
+      <c r="I740" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J722" t="inlineStr">
+      <c r="J740" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K722" t="inlineStr">
+      <c r="K740" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L722" t="inlineStr">
+      <c r="L740" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M722" t="inlineStr">
+      <c r="M740" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N722" t="inlineStr">
+      <c r="N740" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
